--- a/Pruebas_de_escritorio/PE_Colas_prioridad.xlsx
+++ b/Pruebas_de_escritorio/PE_Colas_prioridad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52443\Documents\archivos_y_trabajos_del_Tec\7mo_semestre\Sistemas operativos\RSistemas_operativos\Pruebas_de_escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0032CFAB-B31F-4EA1-9567-7127BAE019F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE5C66E-43FC-4E81-B2A7-07A49FFFBF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57463E3E-3215-4FDC-9F8A-ECF82D72BC70}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,13 +431,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -776,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE4AEEB-A9DA-4FBB-836B-CB38A847C7DC}">
   <dimension ref="B2:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,16 +824,16 @@
       <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -2676,13 +2673,13 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
-      <c r="N87" s="6" t="s">
+      <c r="N87" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O87" s="6" t="s">
+      <c r="O87" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P87" s="6" t="s">
+      <c r="P87" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2927,7 +2924,7 @@
       <c r="B99" s="1">
         <v>44</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D99" s="1"/>
@@ -2992,7 +2989,7 @@
       <c r="B102" s="1">
         <v>44</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D102" s="1"/>

--- a/Pruebas_de_escritorio/PE_Colas_prioridad.xlsx
+++ b/Pruebas_de_escritorio/PE_Colas_prioridad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52443\Documents\archivos_y_trabajos_del_Tec\7mo_semestre\Sistemas operativos\RSistemas_operativos\Pruebas_de_escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE5C66E-43FC-4E81-B2A7-07A49FFFBF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882C7010-CAFF-4648-9795-85D45064BA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57463E3E-3215-4FDC-9F8A-ECF82D72BC70}"/>
   </bookViews>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE4AEEB-A9DA-4FBB-836B-CB38A847C7DC}">
   <dimension ref="B2:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
